--- a/data/trans_bre/P24_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,55</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,85</t>
+          <t>15,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,91</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>54,19%</t>
+          <t>14,9</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>13,58</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>49,83%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>88,4%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>54,1%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>90,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>36,68%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>52,14%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>40,52%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,54; 16,82</t>
+          <t>7,05; 16,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 15,08</t>
+          <t>4,99; 15,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 15,31</t>
+          <t>6,59; 15,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,09; 19,54</t>
+          <t>10,41; 19,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,53; 19,73</t>
+          <t>0,3; 15,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,02; 83,28</t>
+          <t>9,34; 19,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,36; 67,15</t>
+          <t>8,3; 19,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,01; 84,35</t>
+          <t>27,76; 83,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,18; 140,17</t>
+          <t>17,13; 68,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,76; 75,54</t>
+          <t>29,59; 86,04</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>51,38; 132,6</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 69,47</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>27,96; 75,48</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>22,66; 62,27</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,95</t>
+          <t>13,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,05</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>10,78</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>14,51</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>78,51%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>78,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>60,31%</t>
+          <t>33,17%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>50,63%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>39,61%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>60,34%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>29,95%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,33; 19,37</t>
+          <t>8,76; 19,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 14,46</t>
+          <t>2,52; 15,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 12,06</t>
+          <t>1,54; 12,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 15,4</t>
+          <t>4,5; 15,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,75; 23,39</t>
+          <t>3,76; 17,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,26; 129,58</t>
+          <t>6,06; 23,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 78,76</t>
+          <t>0,55; 18,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,11; 65,05</t>
+          <t>40,5; 131,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,94; 86,51</t>
+          <t>8,84; 80,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,77; 118,85</t>
+          <t>6,57; 65,41</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>19,22; 88,22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12,09; 74,52</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>22,41; 123,9</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,31; 73,39</t>
         </is>
       </c>
     </row>
@@ -881,45 +993,65 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,42</t>
+          <t>8,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,03</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>8,6</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>90,34%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>70,04%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>39,73%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>65,56%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30,43%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 26,37</t>
+          <t>7,46; 26,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 13,35</t>
+          <t>-12,25; 12,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 18,38</t>
+          <t>-2,08; 18,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 21,92</t>
+          <t>1,84; 20,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-9,56; 21,99</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>27,65; 193,96</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,8; 68,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 105,03</t>
+          <t>30,27; 189,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 178,83</t>
+          <t>-37,27; 65,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; 107,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7,63; 159,55</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-24,17; 108,25</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,03</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,62</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>9,87</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>14,94</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>67,06%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>12,65</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>67,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>68,84%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>44,13%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>69,78%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>36,9%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>54,32%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>38,69%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 16,81</t>
+          <t>10,13; 17,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 12,22</t>
+          <t>4,18; 12,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 12,39</t>
+          <t>6,04; 12,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,53; 16,03</t>
+          <t>9,43; 16,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,63; 19,48</t>
+          <t>4,89; 14,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,94; 91,87</t>
+          <t>10,26; 19,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,22; 56,28</t>
+          <t>8,24; 17,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,69; 63,88</t>
+          <t>45,86; 92,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,78; 95,05</t>
+          <t>16,47; 56,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,6; 77,36</t>
+          <t>26,43; 64,15</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>46,15; 94,98</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15,28; 58,36</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>33,6; 74,74</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>23,37; 57,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P24_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12,2</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,2</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,25</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,21</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,54</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>14,9</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>13,58</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>54,18%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>40,52%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>54,1%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>90,02%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>36,68%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>52,14%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>40,52%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>12.1970728559767</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>10.49859342453527</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>11.0173334128157</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>15.30550618430908</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>9.307016268424217</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>14.90468224665701</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>13.59844508616405</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.5418464496217333</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.419483680819302</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.5260435506264279</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.9208214714266379</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.3560846438164812</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.5214343299494315</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.405979709601093</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>7,05; 16,67</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,99; 15,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6,59; 15,87</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>10,41; 19,57</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 15,56</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>9,34; 19,7</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>8,3; 19,36</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>27,76; 83,09</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>17,13; 68,57</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>29,59; 86,04</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>51,38; 132,6</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-0,23; 69,47</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>27,96; 75,48</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>22,66; 62,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>7.054146178597452</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>4.9564700557092</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>6.546289618723352</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>10.5439717616425</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.0537503203971726</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>9.335631337124724</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>8.389811272483056</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.2776337814005246</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1732749716822667</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.2808461308772535</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.5294716140164668</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.01190807279809774</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.2795907696960426</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.2297741224526156</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.66788875835789</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.0320085521516</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.59727008899338</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>19.67707746018799</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>15.55757490133969</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>19.70175819052094</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>19.26029644985089</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.8309083952409366</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.7190614773689257</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.8395409212110717</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.358908333680525</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.6906194386810733</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.7548050458935999</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.6204393784790257</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>13,96</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,63</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,15</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,45</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>10,78</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>14,51</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>9,04</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>78,54%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>39,2%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>33,17%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>50,63%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>39,61%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>60,34%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>29,95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>8,76; 19,33</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,52; 15,13</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,54; 12,4</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 15,76</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,76; 17,83</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>6,06; 23,08</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 18,51</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>40,5; 131,72</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>8,84; 80,55</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>6,57; 65,41</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>19,22; 88,22</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>12,09; 74,52</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>22,41; 123,9</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 73,39</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>13.96016302179297</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.117488243525656</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.713092645681532</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>10.12361016477066</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>10.6455581471742</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>14.51352370240341</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>9.173287638342803</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.785441674229631</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.3657655058639572</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3129030397380005</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.4895269293649428</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.3956988518686199</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.6033860613547426</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.3050912940130354</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>16,8</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,72</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,48</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8,6</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>90,35%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>4,8%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>39,73%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>65,56%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>30,43%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>8.757884748020487</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.322343395911904</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.304279353747838</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>4.099077012190998</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>3.686582832808921</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>6.062122660846993</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.7208665682636678</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.4049954421800617</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.04163413560689978</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.05224188342331047</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.1765942642166469</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.122998987769517</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.2240801285200127</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.0143677678526038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>7,46; 26,16</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,25; 12,39</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 18,11</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 20,44</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-9,56; 21,99</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>30,27; 189,05</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-37,27; 65,43</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-7,39; 107,43</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>7,63; 159,55</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-24,17; 108,25</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>19.332117391977</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.48389982086108</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.92177466912951</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>15.40642012707726</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>17.45881719984427</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>23.08113390865988</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>18.71976017157433</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.317198480664481</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.7694415427519855</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.619320389831105</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.8727194046752131</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.7444692497948348</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>1.239011100253745</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.7422152192301873</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>13,5</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,6</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,37</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>12,89</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,87</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>14,94</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>12,65</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>67,07%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>35,67%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>44,13%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>69,78%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>36,9%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>54,32%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>38,69%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>16.80334917958527</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.363278254932376</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.310204061411547</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>12.01919840893503</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>8.549622722126294</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.9034564069882349</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.05276755167712176</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.3777099425673751</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.6961061276213255</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.3030231176518114</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>10,13; 17,05</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,18; 12,48</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,04; 12,63</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>9,43; 16,23</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>4,89; 14,11</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>10,26; 19,01</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>8,24; 17,25</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>45,86; 92,07</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>16,47; 56,89</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>26,43; 64,15</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>46,15; 94,98</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>15,28; 58,36</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>33,6; 74,74</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>23,37; 57,01</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>7.4620965359863</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.85667296998256</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.465061631035889</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>2.440560987642816</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-9.674817029444107</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>0.3027484578193538</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3864191708182733</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.0871708674303667</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>0.09928226506702113</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.2490555233688053</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>26.16262728521826</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.39296210189608</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.43928794637827</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>20.90465571217807</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>21.97449722796877</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.890544606935826</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.6773624328473009</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.072494835738499</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>1.647966454998218</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>1.077284514318939</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>13.49940273832338</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.565715486261457</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>9.048052055457296</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>12.86869281366448</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>9.709886877820006</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>14.93797097729808</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>12.69726743513332</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6707189486018295</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.3569501648476869</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.4252174816955086</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.7021493316728251</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.363705372246752</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.5432256237670158</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.3887478544998444</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>10.12672618006361</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4.387267500857049</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>5.664796793456092</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>9.334827972914116</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>4.513282481000152</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>10.2608385679042</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>8.32386816087365</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.4585638036982734</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1680137288513116</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.2464991540337373</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.4636715907136264</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.1421105224036662</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.3360454707033648</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.238193224825046</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.05441420560703</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.49741105081666</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.3482668021934</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>16.07630305992165</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>13.89080571399445</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>19.01352605574478</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>17.2602135464496</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9206549560552658</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.5798452389718231</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.6296765101291221</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.9609236606234199</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.5676579453727717</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.7474029920630851</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.5723604667355703</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
